--- a/data/Репродукция и жизненные циклы организмов (Дополнительный вопрос)_оценено_2.xlsx
+++ b/data/Репродукция и жизненные циклы организмов (Дополнительный вопрос)_оценено_2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>Timestamp</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>st076316</t>
+  </si>
+  <si>
+    <t>st076056</t>
   </si>
 </sst>
 </file>
@@ -285,8 +288,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -306,7 +309,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -320,16 +323,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -350,22 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,9 +391,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,46 +423,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,13 +480,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,151 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,6 +659,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,8 +709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,26 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,45 +759,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,131 +783,131 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -916,6 +919,7 @@
     <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1177,12 +1181,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1215,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="13.2" spans="1:3">
       <c r="A3" s="4">
         <v>44122.8341378472</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="13.2" spans="1:3">
       <c r="A4" s="4">
         <v>44124.593194456</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="13.2" spans="1:3">
       <c r="A5" s="4">
         <v>44125.8879014468</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="13.2" spans="1:3">
       <c r="A9" s="4">
         <v>44125.9784520949</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="13.2" spans="1:3">
       <c r="A10" s="4">
         <v>44125.9784560185</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="13.2" spans="1:3">
       <c r="A11" s="4">
         <v>44125.9784664931</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="13.2" spans="1:3">
       <c r="A12" s="4">
         <v>44125.9784765509</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="13.2" spans="1:3">
       <c r="A13" s="4">
         <v>44125.9790316898</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="13.2" spans="1:3">
       <c r="A14" s="4">
         <v>44125.9992278241</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="13.2" spans="1:3">
       <c r="A15" s="4">
         <v>44126.8986911343</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="13.2" spans="1:3">
       <c r="A16" s="4">
         <v>44126.9445279861</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="13.2" spans="1:3">
       <c r="A17" s="4">
         <v>44126.9629585532</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="13.2" spans="1:3">
       <c r="A18" s="4">
         <v>44126.9634740625</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="13.2" spans="1:3">
       <c r="A19" s="4">
         <v>44127.0073247222</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="13.2" spans="1:3">
       <c r="A20" s="4">
         <v>44127.0141579398</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="13.2" spans="1:3">
       <c r="A21" s="4">
         <v>44127.0142490741</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="13.2" spans="1:3">
       <c r="A22" s="4">
         <v>44127.0170066088</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="13.2" spans="1:3">
       <c r="A23" s="4">
         <v>44127.0202142824</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" ht="13.2" spans="1:3">
       <c r="A24" s="4">
         <v>44127.4175866435</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="13.2" spans="1:3">
       <c r="A25" s="4">
         <v>44127.4602061111</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="13.2" spans="1:3">
       <c r="A26" s="4">
         <v>44127.4948111227</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="13.2" spans="1:3">
       <c r="A27" s="4">
         <v>44127.5346505208</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="13.2" spans="1:3">
       <c r="A28" s="4">
         <v>44127.8070129977</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="13.2" spans="1:3">
       <c r="A29" s="4">
         <v>44127.8302969676</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="13.2" spans="1:3">
       <c r="A30" s="4">
         <v>44127.8518989352</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="13.2" spans="1:3">
       <c r="A31" s="4">
         <v>44127.8526984028</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="13.2" spans="1:3">
       <c r="A32" s="4">
         <v>44127.9105027546</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="13.2" spans="1:3">
       <c r="A33" s="4">
         <v>44128.5421405787</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="13.2" spans="1:3">
       <c r="A34" s="4">
         <v>44128.608142963</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="13.2" spans="1:3">
       <c r="A35" s="4">
         <v>44128.6401964931</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" ht="13.2" spans="1:3">
       <c r="A36" s="4">
         <v>44128.72330375</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="13.2" spans="1:3">
       <c r="A37" s="4">
         <v>44128.7633999884</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" ht="13.2" spans="1:3">
       <c r="A38" s="4">
         <v>44128.8187937731</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" ht="13.2" spans="1:3">
       <c r="A39" s="4">
         <v>44128.8591091782</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" ht="13.2" spans="1:3">
       <c r="A40" s="4">
         <v>44128.9051197338</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" ht="13.2" spans="1:3">
       <c r="A41" s="4">
         <v>44128.9723471644</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" ht="13.2" spans="1:3">
       <c r="A42" s="4">
         <v>44128.9964096991</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" ht="13.2" spans="1:3">
       <c r="A43" s="4">
         <v>44129.018487963</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" ht="13.2" spans="1:3">
       <c r="A44" s="4">
         <v>44129.0772968287</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" ht="13.2" spans="1:3">
       <c r="A45" s="4">
         <v>44129.3972245602</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" ht="13.2" spans="1:3">
       <c r="A46" s="4">
         <v>44129.4755371644</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" ht="13.2" spans="1:3">
       <c r="A47" s="4">
         <v>44129.4813396759</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" ht="13.2" spans="1:3">
       <c r="A48" s="4">
         <v>44129.4867083449</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="13.2" spans="1:3">
       <c r="A49" s="4">
         <v>44129.5387097222</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" ht="13.2" spans="1:3">
       <c r="A50" s="4">
         <v>44129.5387235764</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" ht="13.2" spans="1:3">
       <c r="A51" s="4">
         <v>44129.5494149653</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" ht="13.2" spans="1:3">
       <c r="A52" s="4">
         <v>44129.5507269329</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="13.2" spans="1:3">
       <c r="A53" s="4">
         <v>44129.5523167824</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" ht="13.2" spans="1:3">
       <c r="A54" s="4">
         <v>44129.5781905556</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="13.2" spans="1:3">
       <c r="A55" s="4">
         <v>44129.5869630787</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" ht="13.2" spans="1:3">
       <c r="A56" s="4">
         <v>44129.5999133218</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="13.2" spans="1:3">
       <c r="A57" s="4">
         <v>44129.6260601852</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" ht="13.2" spans="1:3">
       <c r="A58" s="4">
         <v>44129.6300168634</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" ht="13.2" spans="1:3">
       <c r="A59" s="4">
         <v>44129.6537806829</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" ht="13.2" spans="1:3">
       <c r="A60" s="4">
         <v>44129.6678952894</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" ht="13.2" spans="1:3">
       <c r="A61" s="4">
         <v>44129.7424565625</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="13.2" spans="1:3">
       <c r="A62" s="4">
         <v>44129.785766713</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" ht="13.2" spans="1:3">
       <c r="A63" s="4">
         <v>44129.8006657176</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" ht="13.2" spans="1:3">
       <c r="A64" s="4">
         <v>44129.8710742593</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" ht="13.2" spans="1:3">
       <c r="A65" s="4">
         <v>44129.9418778935</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="13.2" spans="1:3">
       <c r="A66" s="4">
         <v>44129.9547458449</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" ht="13.2" spans="1:3">
       <c r="A67" s="4">
         <v>44129.9784752083</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="13.2" spans="1:3">
       <c r="A68" s="4">
         <v>44130.029025544</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" ht="13.2" spans="1:3">
       <c r="A69" s="4">
         <v>44130.0415849074</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" ht="13.2" spans="1:3">
       <c r="A70" s="4">
         <v>44130.0526502893</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" ht="13.2" spans="1:3">
       <c r="A71" s="4">
         <v>44130.4081484028</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" ht="13.2" spans="1:3">
       <c r="A72" s="4">
         <v>44130.5431527778</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" ht="13.2" spans="1:3">
       <c r="A73" s="4">
         <v>44130.5483930903</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" ht="13.2" spans="1:3">
       <c r="A74" s="4">
         <v>44130.5559774537</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" ht="13.2" spans="1:3">
       <c r="A75" s="4">
         <v>44130.5651804398</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" ht="13.2" spans="1:3">
       <c r="A76" s="4">
         <v>44130.591464537</v>
       </c>
@@ -2032,7 +2036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" ht="13.2" spans="1:3">
       <c r="A77" s="4">
         <v>44130.6595911806</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" ht="13.2" spans="1:3">
       <c r="A81" s="4">
         <v>44130.7621838542</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" ht="13.2" spans="1:3">
       <c r="A83" s="4">
         <v>44130.7833731944</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" ht="13.2" spans="1:3">
       <c r="A85" s="4">
         <v>44130.7893520486</v>
       </c>
@@ -2134,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" ht="13.2" spans="1:3">
       <c r="A86" s="4">
         <v>44130.8219412384</v>
       </c>
@@ -2145,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" ht="13.2" spans="1:3">
       <c r="A87" s="4">
         <v>44130.8513420486</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="13.2" spans="1:3">
       <c r="A88" s="4">
         <v>44130.8681602315</v>
       </c>
@@ -2167,7 +2171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="13.2" spans="1:3">
       <c r="A89" s="4">
         <v>44130.8711582523</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" ht="13.2" spans="1:3">
       <c r="A93" s="4">
         <v>44130.9039923843</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" ht="13.2" spans="1:3">
       <c r="A94" s="4">
         <v>44130.9101309144</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" ht="13.2" spans="1:3">
       <c r="A95" s="4">
         <v>44130.9120068981</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" ht="13.2" spans="1:3">
       <c r="A96" s="4">
         <v>44130.9174238194</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" ht="13.2" spans="1:3">
       <c r="A98" s="4">
         <v>44130.9330554745</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" ht="13.2" spans="1:3">
       <c r="A99" s="4">
         <v>44130.9343387384</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="13.2" spans="1:3">
       <c r="A100" s="4">
         <v>44130.9895930208</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" ht="13.2" spans="1:3">
       <c r="A101" s="4">
         <v>44130.9942510417</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" ht="13.2" spans="1:3">
       <c r="A102" s="4">
         <v>44130.9990209606</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" ht="13.2" spans="1:3">
       <c r="A103" s="4">
         <v>44131.0020854745</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" ht="13.2" spans="1:3">
       <c r="A104" s="4">
         <v>44131.4178225231</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" ht="13.2" spans="1:3">
       <c r="A105" s="4">
         <v>44131.8693357639</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" ht="13.2" spans="1:3">
       <c r="A106" s="4">
         <v>44132.7597859375</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" ht="13.2" spans="1:3">
       <c r="A107" s="4">
         <v>44134.8494395602</v>
       </c>
@@ -2376,6 +2380,14 @@
         <v>19</v>
       </c>
       <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="2:3">
+      <c r="B108" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108">
         <v>5</v>
       </c>
     </row>
